--- a/umit_files_xlsx/umit_ang.xlsx
+++ b/umit_files_xlsx/umit_ang.xlsx
@@ -266,7 +266,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1FqnxW1nvn6x-1AvpP8JTyc3IKWPdjv5B_SLFZCc8kE8/edit"",""УМИТЫ!A:Z"")"),"Грамматика")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1FqnxW1nvn6x-1AvpP8JTyc3IKWPdjv5B_SLFZCc8kE8/edit"",""УМИТЫ!A:AK"")"),"Грамматика")</f>
         <v>Грамматика</v>
       </c>
       <c r="B1" s="1"/>
@@ -374,8 +374,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
         <v>601</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Структура экзамена")</f>
+        <v>Структура экзамена</v>
+      </c>
+      <c r="P2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),901.0)</f>
+        <v>901</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4908,8 +4914,14 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="E105" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексика ""Страны изучаемого языка и родная страна""")</f>
+        <v>Лексика "Страны изучаемого языка и родная страна"</v>
+      </c>
+      <c r="F105" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),806.0)</f>
+        <v>806</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4936,8 +4948,14 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="E106" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексика ""СМИ""")</f>
+        <v>Лексика "СМИ"</v>
+      </c>
+      <c r="F106" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),807.0)</f>
+        <v>807</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4964,8 +4982,14 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="E107" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексика ""Сельская местность""")</f>
+        <v>Лексика "Сельская местность"</v>
+      </c>
+      <c r="F107" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),808.0)</f>
+        <v>808</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -4992,8 +5016,14 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="E108" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лексика ""Жизнь в городе""")</f>
+        <v>Лексика "Жизнь в городе"</v>
+      </c>
+      <c r="F108" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),809.0)</f>
+        <v>809</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
